--- a/pythonAux/kmeans_output.xlsx
+++ b/pythonAux/kmeans_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,25 +466,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Torque kgf.m</t>
+          <t>Tamanho m²</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Tamanho m²</t>
+          <t>Autonomia média</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0 - 100 km/h</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Autonomia média</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Cluster</t>
         </is>
@@ -493,165 +483,141 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A6 3.0 Avant V6 30V 218cv Multitronic 5p</t>
+          <t>A3 1.8 3p</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47111</v>
+        <v>17353</v>
       </c>
       <c r="C2" t="n">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="D2" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>2888</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>29.57</v>
+        <v>7.203720000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>9.150715</v>
+        <v>566.5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>675.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A4 Ambiente 2.0 TFSI 190cv S tronic</t>
+          <t>A3 1.8 3p Aut.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>106177</v>
+        <v>16274</v>
       </c>
       <c r="C3" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>4463</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>32.6</v>
+        <v>7.203720000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>8.705292</v>
+        <v>522.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>683</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q5 3.0 V6 TFSI 272cv Quattro Tiptronic</t>
+          <t>A3 1.8 5p Aut.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153608</v>
+        <v>18724</v>
       </c>
       <c r="C4" t="n">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>6308</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>40.8</v>
+        <v>7.203720000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>8.785841999999999</v>
+        <v>492.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>589</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q3 1.4 TFSI/TFSI Flex S-tronic 5p</t>
+          <t>A3 1.8 Turbo 180cv 3p Aut./ Tip.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>105890</v>
+        <v>22414</v>
       </c>
       <c r="C5" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>4206</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>25.5</v>
+        <v>7.203720000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>8.034428</v>
+        <v>498</v>
       </c>
       <c r="I5" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>707.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A4 1.8 Mec.</t>
+          <t>A3 1.8 Turbo 180cv 3p Aut./ Tip.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18129</v>
+        <v>23585</v>
       </c>
       <c r="C6" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -660,72 +626,60 @@
         <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>17.6</v>
+        <v>7.203720000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>7.762107</v>
+        <v>459.5</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>620</v>
-      </c>
-      <c r="K6" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A7 Sportback 2.0 TFSI S Tronic</t>
+          <t>A3 1.8 Turbo 3p Aut.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185115</v>
+        <v>18439</v>
       </c>
       <c r="C7" t="n">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>8076</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>37.7</v>
+        <v>7.203720000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>9.505314</v>
+        <v>522.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>668</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A4 2.4 30V Tip./Multitronic</t>
+          <t>A3 1.8 Turbo 5p Mec.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30210</v>
+        <v>26010</v>
       </c>
       <c r="C8" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -734,257 +688,215 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>23.4</v>
+        <v>7.203720000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>7.79346</v>
+        <v>498</v>
       </c>
       <c r="I8" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>583</v>
-      </c>
-      <c r="K8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A5 Sportb. Perf. 2.0 TFSI Quat. S-tronic</t>
+          <t>A3 Sed. P. Plus Tech 1.4 Flex TFSI Tip.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>206956</v>
+        <v>161489</v>
       </c>
       <c r="C9" t="n">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>8707</v>
+        <v>6031</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>37.7</v>
+        <v>8.002976</v>
       </c>
       <c r="H9" t="n">
-        <v>8.722918999999999</v>
+        <v>647.5</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>614.5</v>
-      </c>
-      <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A3 1.8 5p Aut.</t>
+          <t>A3 Sportback 2.0 16V TFSI Mec.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18724</v>
+        <v>45036</v>
       </c>
       <c r="C10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D10" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1884</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>17.3</v>
+        <v>7.564789999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>7.203720000000001</v>
+        <v>432</v>
       </c>
       <c r="I10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>492.5</v>
-      </c>
-      <c r="K10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>S Q5 3.0 V6 TFSI 354cv Quattro Tiptronic</t>
+          <t>A4 1.8 Avant Mec.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>211467</v>
+        <v>17015</v>
       </c>
       <c r="C11" t="n">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E11" t="n">
-        <v>8714</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>47.9</v>
+        <v>7.762107</v>
       </c>
       <c r="H11" t="n">
-        <v>8.874684</v>
+        <v>651</v>
       </c>
       <c r="I11" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>626.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A3 1.8 Turbo 180cv 3p Aut./ Tip.</t>
+          <t>A4 1.8 Avant Turbo Tip./ Multitronic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23585</v>
+        <v>45994</v>
       </c>
       <c r="C12" t="n">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>23.9</v>
+        <v>8.126392000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>7.203720000000001</v>
+        <v>717.5</v>
       </c>
       <c r="I12" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>459.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q7 3.0 V6 TFSI Quat.Tip.5p/ Perf.(Híb.)</t>
+          <t>A4 1.8 Mec.</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>518430</v>
+        <v>18129</v>
       </c>
       <c r="C13" t="n">
-        <v>340</v>
+        <v>125</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>20969</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>51</v>
+        <v>7.762107</v>
       </c>
       <c r="H13" t="n">
-        <v>9.97411</v>
+        <v>620</v>
       </c>
       <c r="I13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>646.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>S Q5 3.0 V6 TFSI 354cv Quattro Tiptronic</t>
+          <t>A4 2.0 20V 130cv Multitronic 4p</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>322651</v>
+        <v>22858</v>
       </c>
       <c r="C14" t="n">
-        <v>354</v>
+        <v>130</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E14" t="n">
-        <v>13412</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>51</v>
+        <v>8.059056</v>
       </c>
       <c r="H14" t="n">
-        <v>8.842203000000001</v>
+        <v>682.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>570.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A6 2.8 Avant 30V Mec.</t>
+          <t>A4 2.4 30V Tip./Multitronic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25246</v>
+        <v>30210</v>
       </c>
       <c r="C15" t="n">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -993,35 +905,29 @@
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>7.79346</v>
       </c>
       <c r="H15" t="n">
-        <v>8.685556</v>
+        <v>583</v>
       </c>
       <c r="I15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>612.5</v>
-      </c>
-      <c r="K15" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S6 4.2 V8 40V Quattro Mec</t>
+          <t>A4 2.8 30V Tiptronic/ Aut.</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45220</v>
+        <v>21283</v>
       </c>
       <c r="C16" t="n">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1030,220 +936,184 @@
         <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>42.8</v>
+        <v>7.711850000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>8.941050000000001</v>
+        <v>617</v>
       </c>
       <c r="I16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>544</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A5 Sportback 1.8 TFSI 170cv Multi.</t>
+          <t>A4 3.2 FSI 24V 269cv Quattro Tiptronic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>108031</v>
+        <v>57914</v>
       </c>
       <c r="C17" t="n">
-        <v>170</v>
+        <v>269</v>
       </c>
       <c r="D17" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>4268</v>
+        <v>2439</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>32.4</v>
+        <v>8.587678</v>
       </c>
       <c r="H17" t="n">
-        <v>8.736048</v>
+        <v>611.5</v>
       </c>
       <c r="I17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>630</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>S5 Cabriolet 3.0 TFSI Quattro Stronic</t>
+          <t>A4 Ambiente 2.0 TFSI 190cv S tronic</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>245979</v>
+        <v>106177</v>
       </c>
       <c r="C18" t="n">
-        <v>333</v>
+        <v>190</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18" t="n">
-        <v>9949</v>
+        <v>4463</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>44.9</v>
+        <v>8.705292</v>
       </c>
       <c r="H18" t="n">
-        <v>8.60256</v>
+        <v>683</v>
       </c>
       <c r="I18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>580</v>
-      </c>
-      <c r="K18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A6 Perf. Black 3.0 TFSI Quattro S-tronic</t>
+          <t>A5 Sportb. Perf. 2.0 TFSI Quat. S-tronic</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349389</v>
+        <v>206956</v>
       </c>
       <c r="C19" t="n">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>19213</v>
+        <v>8707</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>51</v>
+        <v>8.722918999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>9.314954</v>
+        <v>614.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>679</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A4 1.8 Avant Mec.</t>
+          <t>A5 Sportback 1.8 TFSI 170cv Multi.</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17015</v>
+        <v>108031</v>
       </c>
       <c r="C20" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D20" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4268</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>21.4</v>
+        <v>8.736048</v>
       </c>
       <c r="H20" t="n">
-        <v>7.762107</v>
+        <v>630</v>
       </c>
       <c r="I20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>651</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TT Roadster 2.0 16v TFSI S-Tronic</t>
+          <t>A6 2.4 Avant 30V Mec.</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>309303</v>
+        <v>26324</v>
       </c>
       <c r="C21" t="n">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
-        <v>12896</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>37.7</v>
+        <v>8.680760000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>7.652264</v>
+        <v>714</v>
       </c>
       <c r="I21" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>570</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A6 2.4 Avant 30V Mec.</t>
+          <t>A6 2.4 Avant V6 30V Quattro Mec.</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26324</v>
+        <v>30386</v>
       </c>
       <c r="C22" t="n">
         <v>165</v>
       </c>
       <c r="D22" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1252,661 +1122,553 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>23.45</v>
+        <v>8.680760000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>8.680760000000001</v>
+        <v>714</v>
       </c>
       <c r="I22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>714</v>
-      </c>
-      <c r="K22" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A4 3.2 FSI 24V 269cv Quattro Tiptronic</t>
+          <t>A6 2.4 V6 30V Quattro Mec</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>57914</v>
+        <v>27219</v>
       </c>
       <c r="C23" t="n">
-        <v>269</v>
+        <v>165</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E23" t="n">
-        <v>2439</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
       </c>
       <c r="G23" t="n">
-        <v>33.7</v>
+        <v>8.680760000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>8.587678</v>
+        <v>642</v>
       </c>
       <c r="I23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>611.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A6 3.0 Avant.TFSI V6 Quattro S tronic 5p</t>
+          <t>A6 2.8 Avant 30V Mec.</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>140955</v>
+        <v>25246</v>
       </c>
       <c r="C24" t="n">
-        <v>300</v>
+        <v>174</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E24" t="n">
-        <v>5682</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>44.9</v>
+        <v>8.685556</v>
       </c>
       <c r="H24" t="n">
-        <v>9.231324000000001</v>
+        <v>612.5</v>
       </c>
       <c r="I24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>675</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A3 1.8 Turbo 3p Aut.</t>
+          <t>A6 3.0 Avant V6 30V 218cv Multitronic 5p</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18439</v>
+        <v>47111</v>
       </c>
       <c r="C25" t="n">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="D25" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2888</v>
       </c>
       <c r="F25" t="n">
         <v>5</v>
       </c>
       <c r="G25" t="n">
-        <v>21.4</v>
+        <v>9.150715</v>
       </c>
       <c r="H25" t="n">
-        <v>7.203720000000001</v>
+        <v>675.5</v>
       </c>
       <c r="I25" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J25" t="n">
-        <v>522.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A3 Sed. P. Plus Tech 1.4 Flex TFSI Tip.</t>
+          <t>A6 3.0 Avant.TFSI V6 Quattro S tronic 5p</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161489</v>
+        <v>140955</v>
       </c>
       <c r="C26" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>6031</v>
+        <v>5682</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>25.5</v>
+        <v>9.231324000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>8.002976</v>
+        <v>675</v>
       </c>
       <c r="I26" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J26" t="n">
-        <v>647.5</v>
-      </c>
-      <c r="K26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q3 Prest. 1.4 TFSI Flex/Prest. S-tronic</t>
+          <t>A6 3.0 TB FSI V6 Quattro Tiptronic</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>238154</v>
+        <v>101248</v>
       </c>
       <c r="C27" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E27" t="n">
-        <v>10158</v>
+        <v>4102</v>
       </c>
       <c r="F27" t="n">
         <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>25.5</v>
+        <v>9.210710000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>8.290915999999999</v>
+        <v>690</v>
       </c>
       <c r="I27" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="J27" t="n">
-        <v>588.5</v>
-      </c>
-      <c r="K27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A4 2.8 30V Tiptronic/ Aut.</t>
+          <t>A6 3.0 TFSI V6 Quattro S tronic 4p</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21283</v>
+        <v>137038</v>
       </c>
       <c r="C28" t="n">
-        <v>193</v>
+        <v>300</v>
       </c>
       <c r="D28" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5495</v>
       </c>
       <c r="F28" t="n">
         <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>28.5</v>
+        <v>9.210710000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>7.711850000000001</v>
+        <v>690</v>
       </c>
       <c r="I28" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="J28" t="n">
-        <v>617</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TTS 2.0 TFSI QUATTRO S Tronic</t>
+          <t>A6 Perf. Black 3.0 TFSI Quattro S-tronic</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>294238</v>
+        <v>349389</v>
       </c>
       <c r="C29" t="n">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
-        <v>11350</v>
+        <v>19213</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>38.7</v>
+        <v>9.314954</v>
       </c>
       <c r="H29" t="n">
-        <v>7.677912</v>
+        <v>679</v>
       </c>
       <c r="I29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J29" t="n">
-        <v>547.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A3 Sportback 2.0 16V TFSI Mec.</t>
+          <t>A7 Sportback 2.0 TFSI S Tronic</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45036</v>
+        <v>185115</v>
       </c>
       <c r="C30" t="n">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E30" t="n">
-        <v>1884</v>
+        <v>8076</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>28.5</v>
+        <v>9.505314</v>
       </c>
       <c r="H30" t="n">
-        <v>7.564789999999999</v>
+        <v>668</v>
       </c>
       <c r="I30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>432</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A3 1.8 Turbo 180cv 3p Aut./ Tip.</t>
+          <t>Q3 1.4 TFSI/TFSI Flex S-tronic 5p</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22414</v>
+        <v>105890</v>
       </c>
       <c r="C31" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D31" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4206</v>
       </c>
       <c r="F31" t="n">
         <v>5</v>
       </c>
       <c r="G31" t="n">
-        <v>23.9</v>
+        <v>8.034428</v>
       </c>
       <c r="H31" t="n">
-        <v>7.203720000000001</v>
+        <v>707.5</v>
       </c>
       <c r="I31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>498</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A3 1.8 Turbo 5p Mec.</t>
+          <t>Q3 Prest. 1.4 TFSI Flex/Prest. S-tronic</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>26010</v>
+        <v>129711</v>
       </c>
       <c r="C32" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D32" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>5067</v>
       </c>
       <c r="F32" t="n">
         <v>5</v>
       </c>
       <c r="G32" t="n">
-        <v>23.9</v>
+        <v>8.034428</v>
       </c>
       <c r="H32" t="n">
-        <v>7.203720000000001</v>
+        <v>707.5</v>
       </c>
       <c r="I32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>498</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A4 2.0 20V 130cv Multitronic 4p</t>
+          <t>Q3 Prest. 1.4 TFSI Flex/Prest. S-tronic</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22858</v>
+        <v>238154</v>
       </c>
       <c r="C33" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D33" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>10158</v>
       </c>
       <c r="F33" t="n">
         <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>19.9</v>
+        <v>8.290915999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>8.059056</v>
+        <v>588.5</v>
       </c>
       <c r="I33" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>682.5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A3 1.8 3p</t>
+          <t>Q5 3.0 V6 TFSI 272cv Quattro Tiptronic</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17353</v>
+        <v>153608</v>
       </c>
       <c r="C34" t="n">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="D34" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6308</v>
       </c>
       <c r="F34" t="n">
         <v>5</v>
       </c>
       <c r="G34" t="n">
-        <v>17.3</v>
+        <v>8.785841999999999</v>
       </c>
       <c r="H34" t="n">
-        <v>7.203720000000001</v>
+        <v>589</v>
       </c>
       <c r="I34" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="J34" t="n">
-        <v>566.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A3 1.8 3p Aut.</t>
+          <t>Q7 3.0 V6 TFSI Quat.Tip.5p/ Perf.(Híb.)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16274</v>
+        <v>518430</v>
       </c>
       <c r="C35" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="D35" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>20969</v>
       </c>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>21.4</v>
+        <v>9.97411</v>
       </c>
       <c r="H35" t="n">
-        <v>7.203720000000001</v>
+        <v>646.5</v>
       </c>
       <c r="I35" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>522.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Q3 Prest. 1.4 TFSI Flex/Prest. S-tronic</t>
+          <t>Q7 S-Line 3.0 V6 TFSI Quattro Tiptronic</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>129711</v>
+        <v>436302</v>
       </c>
       <c r="C36" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E36" t="n">
-        <v>5067</v>
+        <v>16804</v>
       </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>25.5</v>
+        <v>9.97411</v>
       </c>
       <c r="H36" t="n">
-        <v>8.034428</v>
+        <v>595</v>
       </c>
       <c r="I36" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>707.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TT 1.8 TB Quattro 225cv</t>
+          <t>S Q5 3.0 V6 TFSI 354cv Quattro Tiptronic</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58239</v>
+        <v>211467</v>
       </c>
       <c r="C37" t="n">
-        <v>225</v>
+        <v>354</v>
       </c>
       <c r="D37" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>8714</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>23.96</v>
+        <v>8.874684</v>
       </c>
       <c r="H37" t="n">
-        <v>7.128324000000001</v>
+        <v>626.5</v>
       </c>
       <c r="I37" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J37" t="n">
-        <v>583</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A6 2.4 Avant V6 30V Quattro Mec.</t>
+          <t>S Q5 3.0 V6 TFSI 354cv Quattro Tiptronic</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>30386</v>
+        <v>322651</v>
       </c>
       <c r="C38" t="n">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="D38" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>13412</v>
       </c>
       <c r="F38" t="n">
         <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>23.45</v>
+        <v>8.842203000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>8.680760000000001</v>
+        <v>570.5</v>
       </c>
       <c r="I38" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="J38" t="n">
-        <v>714</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A4 1.8 Avant Turbo Tip./ Multitronic</t>
+          <t>S5 Cabriolet 3.0 TFSI Quattro Stronic</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>45994</v>
+        <v>245979</v>
       </c>
       <c r="C39" t="n">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="D39" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>1868</v>
+        <v>9949</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" t="n">
-        <v>23</v>
+        <v>8.60256</v>
       </c>
       <c r="H39" t="n">
-        <v>8.126392000000001</v>
+        <v>580</v>
       </c>
       <c r="I39" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>717.5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A6 2.4 V6 30V Quattro Mec</t>
+          <t>S6 4.2 V8 40V Quattro Mec</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27219</v>
+        <v>45220</v>
       </c>
       <c r="C40" t="n">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="D40" t="n">
         <v>24</v>
@@ -1918,130 +1680,106 @@
         <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>23.9</v>
+        <v>8.941050000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>8.680760000000001</v>
+        <v>544</v>
       </c>
       <c r="I40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>642</v>
-      </c>
-      <c r="K40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A6 3.0 TB FSI V6 Quattro Tiptronic</t>
+          <t>TT 1.8 TB Quattro 225cv</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101248</v>
+        <v>58239</v>
       </c>
       <c r="C41" t="n">
-        <v>300</v>
+        <v>225</v>
       </c>
       <c r="D41" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E41" t="n">
-        <v>4102</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G41" t="n">
-        <v>44.9</v>
+        <v>7.128324000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>9.210710000000001</v>
+        <v>583</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>690</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A6 3.0 TFSI V6 Quattro S tronic 4p</t>
+          <t>TT Roadster 2.0 16v TFSI S-Tronic</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137038</v>
+        <v>309303</v>
       </c>
       <c r="C42" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="D42" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>5495</v>
+        <v>12896</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>44.9</v>
+        <v>7.652264</v>
       </c>
       <c r="H42" t="n">
-        <v>9.210710000000001</v>
+        <v>570</v>
       </c>
       <c r="I42" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>690</v>
-      </c>
-      <c r="K42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q7 S-Line 3.0 V6 TFSI Quattro Tiptronic</t>
+          <t>TTS 2.0 TFSI QUATTRO S Tronic</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>436302</v>
+        <v>294238</v>
       </c>
       <c r="C43" t="n">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>16804</v>
+        <v>11350</v>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>51</v>
+        <v>7.677912</v>
       </c>
       <c r="H43" t="n">
-        <v>9.97411</v>
+        <v>547.5</v>
       </c>
       <c r="I43" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>595</v>
-      </c>
-      <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
